--- a/new_modules/Summary_2023-05-05_L2A.xlsx
+++ b/new_modules/Summary_2023-05-05_L2A.xlsx
@@ -456,25 +456,25 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>1231.341064453125</v>
+        <v>1218.237060546875</v>
       </c>
       <c r="C2">
-        <v>0.9237</v>
+        <v>0.9139</v>
       </c>
       <c r="D2">
-        <v>0.919700026512146</v>
+        <v>0.9157000184059143</v>
       </c>
       <c r="E2">
-        <v>1.359500050544739</v>
+        <v>1.326300024986267</v>
       </c>
       <c r="F2">
-        <v>0.5266000032424927</v>
+        <v>0.5130000114440918</v>
       </c>
       <c r="G2">
         <v>13.33</v>
       </c>
       <c r="H2">
-        <v>0.7945</v>
+        <v>0.7594</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -482,25 +482,25 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>1226.137451171875</v>
+        <v>1164.693115234375</v>
       </c>
       <c r="C3">
-        <v>0.9809</v>
+        <v>0.9318</v>
       </c>
       <c r="D3">
-        <v>0.9502</v>
+        <v>0.9326</v>
       </c>
       <c r="E3">
-        <v>1.471799969673157</v>
+        <v>1.04040002822876</v>
       </c>
       <c r="F3">
-        <v>0.6486999988555908</v>
+        <v>0.7684999704360962</v>
       </c>
       <c r="G3">
         <v>12.5</v>
       </c>
       <c r="H3">
-        <v>1.0651</v>
+        <v>0.9093</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -508,25 +508,25 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>813.5308227539062</v>
+        <v>797.730712890625</v>
       </c>
       <c r="C4">
-        <v>0.9504</v>
+        <v>0.9319</v>
       </c>
       <c r="D4">
-        <v>0.9085</v>
+        <v>0.9347</v>
       </c>
       <c r="E4">
-        <v>1.560400009155273</v>
+        <v>1.037099957466125</v>
       </c>
       <c r="F4">
-        <v>0.7325000166893005</v>
+        <v>0.7386999726295471</v>
       </c>
       <c r="G4">
         <v>8.56</v>
       </c>
       <c r="H4">
-        <v>0.6953</v>
+        <v>0.9274</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -534,25 +534,25 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>789.6846923828125</v>
+        <v>828.351806640625</v>
       </c>
       <c r="C5">
-        <v>0.833</v>
+        <v>0.8738</v>
       </c>
       <c r="D5">
-        <v>0.8255</v>
+        <v>0.8801</v>
       </c>
       <c r="E5">
-        <v>1.066499948501587</v>
+        <v>0.9781000018119812</v>
       </c>
       <c r="F5">
-        <v>0.5224000215530396</v>
+        <v>0.5246999859809875</v>
       </c>
       <c r="G5">
         <v>9.48</v>
       </c>
       <c r="H5">
-        <v>-0.0396</v>
+        <v>0.4439</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -560,25 +560,25 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>1101.563232421875</v>
+        <v>1137.451171875</v>
       </c>
       <c r="C6">
-        <v>0.8715000000000001</v>
+        <v>0.8999</v>
       </c>
       <c r="D6">
-        <v>0.8672</v>
+        <v>0.9089</v>
       </c>
       <c r="E6">
-        <v>1.07860004901886</v>
+        <v>0.9739000201225281</v>
       </c>
       <c r="F6">
-        <v>0.6554999947547913</v>
+        <v>0.6384000182151794</v>
       </c>
       <c r="G6">
         <v>12.64</v>
       </c>
       <c r="H6">
-        <v>0.3298</v>
+        <v>0.6989</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -586,25 +586,25 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>859.278076171875</v>
+        <v>890.1533813476562</v>
       </c>
       <c r="C7">
-        <v>0.8653</v>
+        <v>0.8964</v>
       </c>
       <c r="D7">
-        <v>0.8651999831199646</v>
+        <v>0.9004999995231628</v>
       </c>
       <c r="E7">
-        <v>1.030699968338013</v>
+        <v>0.9761999845504761</v>
       </c>
       <c r="F7">
-        <v>0.7239000201225281</v>
+        <v>0.7508000135421753</v>
       </c>
       <c r="G7">
         <v>9.93</v>
       </c>
       <c r="H7">
-        <v>0.3118</v>
+        <v>0.6245000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -612,25 +612,25 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>948.1411743164062</v>
+        <v>985.451171875</v>
       </c>
       <c r="C8">
-        <v>0.8496</v>
+        <v>0.883</v>
       </c>
       <c r="D8">
-        <v>0.8489</v>
+        <v>0.8844</v>
       </c>
       <c r="E8">
-        <v>1.085199952125549</v>
+        <v>0.9664000272750854</v>
       </c>
       <c r="F8">
-        <v>0.7343999743461609</v>
+        <v>0.7779999971389771</v>
       </c>
       <c r="G8">
         <v>11.16</v>
       </c>
       <c r="H8">
-        <v>0.1679</v>
+        <v>0.4823</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -638,25 +638,25 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>6969.67626953125</v>
+        <v>7022.068359375</v>
       </c>
       <c r="C9">
-        <v>0.8982</v>
+        <v>0.9049</v>
       </c>
       <c r="D9">
-        <v>0.885</v>
+        <v>0.9121</v>
       </c>
       <c r="E9">
-        <v>1.560400009155273</v>
+        <v>1.326300024986267</v>
       </c>
       <c r="F9">
-        <v>0.5224000215530396</v>
+        <v>0.5130000114440918</v>
       </c>
       <c r="G9">
         <v>77.59999999999999</v>
       </c>
       <c r="H9">
-        <v>3.3248</v>
+        <v>4.845700000000001</v>
       </c>
     </row>
   </sheetData>

--- a/new_modules/Summary_2023-05-05_L2A.xlsx
+++ b/new_modules/Summary_2023-05-05_L2A.xlsx
@@ -456,25 +456,25 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>1218.237060546875</v>
+        <v>1231.1044921875</v>
       </c>
       <c r="C2">
-        <v>0.9139</v>
+        <v>0.9236</v>
       </c>
       <c r="D2">
-        <v>0.9157000184059143</v>
+        <v>0.9194999933242798</v>
       </c>
       <c r="E2">
-        <v>1.326300024986267</v>
+        <v>1.359200000762939</v>
       </c>
       <c r="F2">
-        <v>0.5130000114440918</v>
+        <v>0.5264999866485596</v>
       </c>
       <c r="G2">
         <v>13.33</v>
       </c>
       <c r="H2">
-        <v>0.7594</v>
+        <v>0.793</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -482,25 +482,25 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>1164.693115234375</v>
+        <v>1225.90185546875</v>
       </c>
       <c r="C3">
-        <v>0.9318</v>
+        <v>0.9807</v>
       </c>
       <c r="D3">
-        <v>0.9326</v>
+        <v>0.95</v>
       </c>
       <c r="E3">
-        <v>1.04040002822876</v>
+        <v>1.471500039100647</v>
       </c>
       <c r="F3">
-        <v>0.7684999704360962</v>
+        <v>0.6485000252723694</v>
       </c>
       <c r="G3">
         <v>12.5</v>
       </c>
       <c r="H3">
-        <v>0.9093</v>
+        <v>1.0635</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -508,25 +508,25 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>797.730712890625</v>
+        <v>813.3743896484375</v>
       </c>
       <c r="C4">
-        <v>0.9319</v>
+        <v>0.9502</v>
       </c>
       <c r="D4">
-        <v>0.9347</v>
+        <v>0.9083</v>
       </c>
       <c r="E4">
-        <v>1.037099957466125</v>
+        <v>1.560099959373474</v>
       </c>
       <c r="F4">
-        <v>0.7386999726295471</v>
+        <v>0.7324000000953674</v>
       </c>
       <c r="G4">
         <v>8.56</v>
       </c>
       <c r="H4">
-        <v>0.9274</v>
+        <v>0.6937</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -534,25 +534,25 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>828.351806640625</v>
+        <v>789.5330200195312</v>
       </c>
       <c r="C5">
-        <v>0.8738</v>
+        <v>0.8328</v>
       </c>
       <c r="D5">
-        <v>0.8801</v>
+        <v>0.8254</v>
       </c>
       <c r="E5">
-        <v>0.9781000018119812</v>
+        <v>1.06630003452301</v>
       </c>
       <c r="F5">
-        <v>0.5246999859809875</v>
+        <v>0.5223000049591064</v>
       </c>
       <c r="G5">
         <v>9.48</v>
       </c>
       <c r="H5">
-        <v>0.4439</v>
+        <v>-0.041</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -560,25 +560,25 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>1137.451171875</v>
+        <v>1101.351684570312</v>
       </c>
       <c r="C6">
-        <v>0.8999</v>
+        <v>0.8713</v>
       </c>
       <c r="D6">
-        <v>0.9089</v>
+        <v>0.867</v>
       </c>
       <c r="E6">
-        <v>0.9739000201225281</v>
+        <v>1.078400015830994</v>
       </c>
       <c r="F6">
-        <v>0.6384000182151794</v>
+        <v>0.6553999781608582</v>
       </c>
       <c r="G6">
         <v>12.64</v>
       </c>
       <c r="H6">
-        <v>0.6989</v>
+        <v>0.3283</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -586,25 +586,25 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>890.1533813476562</v>
+        <v>859.1129760742188</v>
       </c>
       <c r="C7">
-        <v>0.8964</v>
+        <v>0.8652</v>
       </c>
       <c r="D7">
-        <v>0.9004999995231628</v>
+        <v>0.8650000095367432</v>
       </c>
       <c r="E7">
-        <v>0.9761999845504761</v>
+        <v>1.030500054359436</v>
       </c>
       <c r="F7">
-        <v>0.7508000135421753</v>
+        <v>0.723800003528595</v>
       </c>
       <c r="G7">
         <v>9.93</v>
       </c>
       <c r="H7">
-        <v>0.6245000000000001</v>
+        <v>0.3104</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -612,25 +612,25 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>985.451171875</v>
+        <v>947.958984375</v>
       </c>
       <c r="C8">
-        <v>0.883</v>
+        <v>0.8494</v>
       </c>
       <c r="D8">
-        <v>0.8844</v>
+        <v>0.8488</v>
       </c>
       <c r="E8">
-        <v>0.9664000272750854</v>
+        <v>1.085000038146973</v>
       </c>
       <c r="F8">
-        <v>0.7779999971389771</v>
+        <v>0.7342000007629395</v>
       </c>
       <c r="G8">
         <v>11.16</v>
       </c>
       <c r="H8">
-        <v>0.4823</v>
+        <v>0.1665</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -638,25 +638,25 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>7022.068359375</v>
+        <v>6968.33740234375</v>
       </c>
       <c r="C9">
-        <v>0.9049</v>
+        <v>0.898</v>
       </c>
       <c r="D9">
-        <v>0.9121</v>
+        <v>0.8848</v>
       </c>
       <c r="E9">
-        <v>1.326300024986267</v>
+        <v>1.560099959373474</v>
       </c>
       <c r="F9">
-        <v>0.5130000114440918</v>
+        <v>0.5223000049591064</v>
       </c>
       <c r="G9">
         <v>77.59999999999999</v>
       </c>
       <c r="H9">
-        <v>4.845700000000001</v>
+        <v>3.3144</v>
       </c>
     </row>
   </sheetData>
